--- a/Bank Deposit Automation/BankData.xlsx
+++ b/Bank Deposit Automation/BankData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EC8B70-D6BB-467D-AF02-B1408577BD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FAC510-7B9D-4A86-A34A-F7962985E027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="34065" yWindow="1050" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,6 +460,9 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="1">
+        <v>318448</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -471,6 +474,9 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="1">
+        <v>444108</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -482,6 +488,9 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="1">
+        <v>999584</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -493,6 +502,9 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="1">
+        <v>225245</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -504,6 +516,9 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="1">
+        <v>350905</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -515,6 +530,9 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D7" s="1">
+        <v>730716</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -526,6 +544,9 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D8" s="1">
+        <v>279301</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -537,6 +558,9 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D9" s="1">
+        <v>982036</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -548,6 +572,9 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D10" s="1">
+        <v>784771</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -559,6 +586,9 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D11" s="1">
+        <v>587507</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -570,6 +600,9 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D12" s="1">
+        <v>136092</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -581,6 +614,9 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D13" s="1">
+        <v>192979</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -592,6 +628,9 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D14" s="1">
+        <v>465897</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -603,6 +642,9 @@
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D15" s="1">
+        <v>444298</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -614,8 +656,11 @@
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="1">
+        <v>569958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>42275634</v>
       </c>
@@ -625,8 +670,11 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" s="1">
+        <v>548360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>74175241</v>
       </c>
@@ -636,8 +684,11 @@
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="1">
+        <v>526762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>48379685</v>
       </c>
@@ -647,8 +698,11 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="1">
+        <v>476756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>36184348</v>
       </c>
@@ -658,8 +712,11 @@
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="1">
+        <v>602416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44252768</v>
       </c>
@@ -669,8 +726,11 @@
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" s="1">
+        <v>257893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>92062162</v>
       </c>
@@ -680,8 +740,11 @@
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="1">
+        <v>706477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>18702448</v>
       </c>
@@ -691,8 +754,11 @@
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" s="1">
+        <v>684879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>62483567</v>
       </c>
@@ -702,8 +768,11 @@
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" s="1">
+        <v>810539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>77372870</v>
       </c>
@@ -713,8 +782,11 @@
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" s="1">
+        <v>936199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>50800368</v>
       </c>
@@ -724,8 +796,11 @@
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" s="1">
+        <v>591677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>46516308</v>
       </c>
@@ -735,8 +810,11 @@
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" s="1">
+        <v>315928</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>59109864</v>
       </c>
@@ -746,8 +824,11 @@
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" s="1">
+        <v>294330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>76740252</v>
       </c>
@@ -757,8 +838,11 @@
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" s="1">
+        <v>244323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>50435910</v>
       </c>
@@ -768,8 +852,11 @@
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" s="1">
+        <v>222725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>91071963</v>
       </c>
@@ -778,6 +865,9 @@
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="D31" s="1">
+        <v>348385</v>
       </c>
     </row>
   </sheetData>
